--- a/Supplementary files/Supplementary File 1.xlsx
+++ b/Supplementary files/Supplementary File 1.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="COAD" sheetId="1" r:id="rId1"/>
-    <sheet name="LUAD" sheetId="2" r:id="rId2"/>
-    <sheet name="BRCA" sheetId="3" r:id="rId3"/>
-    <sheet name="HNSC" sheetId="4" r:id="rId4"/>
-    <sheet name="BLCA" sheetId="5" r:id="rId5"/>
+    <sheet name="Readme" sheetId="6" r:id="rId1"/>
+    <sheet name="COAD" sheetId="1" r:id="rId2"/>
+    <sheet name="LUAD" sheetId="2" r:id="rId3"/>
+    <sheet name="BRCA" sheetId="3" r:id="rId4"/>
+    <sheet name="HNSC" sheetId="4" r:id="rId5"/>
+    <sheet name="BLCA" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="674">
   <si>
     <t>driver</t>
   </si>
@@ -2022,17 +2028,35 @@
   </si>
   <si>
     <t>APBB1IP</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Corrected p-value according to Benjamini-Hochberg's FDR</t>
+  </si>
+  <si>
+    <t>The gene in question</t>
+  </si>
+  <si>
+    <t>The pathway in question</t>
+  </si>
+  <si>
+    <t>Does the gene belongs to the said pathway?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2040,7 +2064,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2049,7 +2073,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -2058,7 +2082,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2067,7 +2091,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2076,7 +2100,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2084,7 +2108,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2092,7 +2116,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2100,7 +2124,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2108,7 +2132,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2117,7 +2141,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2126,7 +2150,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2134,7 +2158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2143,7 +2167,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2151,7 +2175,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2160,7 +2184,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2169,7 +2193,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2177,9 +2201,17 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2524,7 +2556,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2536,6 +2568,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2583,6 +2616,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2629,7 +2670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2661,9 +2702,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2695,6 +2737,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2870,18 +2913,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="72.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5773,15 +5876,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
@@ -9974,15 +10077,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
@@ -12341,15 +12444,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
@@ -14274,15 +14377,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
